--- a/log_history/Y4_B2526_Immunology_Haematolo_scanner1763916845497_a23cf4a19f25b20447ba43118b86591083b1661204523d8090a84d4e2b6887b5.xlsx
+++ b/log_history/Y4_B2526_Immunology_Haematolo_scanner1763916845497_a23cf4a19f25b20447ba43118b86591083b1661204523d8090a84d4e2b6887b5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Immunology_Haematology" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/log_history/Y4_B2526_Immunology_Haematolo_scanner1763916845497_a23cf4a19f25b20447ba43118b86591083b1661204523d8090a84d4e2b6887b5.xlsx
+++ b/log_history/Y4_B2526_Immunology_Haematolo_scanner1763916845497_a23cf4a19f25b20447ba43118b86591083b1661204523d8090a84d4e2b6887b5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Immunology_Haematology" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
